--- a/LF/PreTAS/Ivory Coast/2024/ci_lf_pretas_2406_4_micro.xlsx
+++ b/LF/PreTAS/Ivory Coast/2024/ci_lf_pretas_2406_4_micro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Ivory Coast\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42EA2BF-5BDB-465F-A754-45E61825043C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CEBDCB-54A8-4F81-8C30-36B2A36A2FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -279,12 +279,6 @@
     <t xml:space="preserve">Ce code d'identification est déjà utilisé ou la valeur n'est pas comprise entre 1 et 410 </t>
   </si>
   <si>
-    <t>ci_lf_pretas_2406_4_micro</t>
-  </si>
-  <si>
-    <t>ci_micro_2406</t>
-  </si>
-  <si>
     <t>Microfilaire WB</t>
   </si>
   <si>
@@ -360,7 +354,13 @@
     <t>d_end</t>
   </si>
   <si>
-    <t>(2024 Juillet) 4. Pre-TAS FL Résultat Microfilaremie</t>
+    <t>ci_lf_pretas_2406_4_micro_v3</t>
+  </si>
+  <si>
+    <t>(2024 Juillet) 4. Pre-TAS FL Résultat Microfilaremie V3</t>
+  </si>
+  <si>
+    <t>ci_micro_2406_3</t>
   </si>
 </sst>
 </file>
@@ -909,11 +909,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -966,7 +966,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>10</v>
@@ -975,7 +975,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="10" customFormat="1" ht="63">
@@ -983,7 +983,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>13</v>
@@ -1012,7 +1012,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>76</v>
@@ -1035,7 +1035,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>19</v>
@@ -1058,7 +1058,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>20</v>
@@ -1081,7 +1081,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>21</v>
@@ -1117,7 +1117,7 @@
       <c r="G7" s="31"/>
       <c r="H7" s="31"/>
       <c r="I7" s="33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J7" s="31"/>
       <c r="K7" s="31"/>
@@ -1128,7 +1128,7 @@
         <v>78</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="C8" s="36" t="s">
         <v>79</v>
@@ -1179,7 +1179,7 @@
       <c r="G10" s="32"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
@@ -1198,7 +1198,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>23</v>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>84</v>
@@ -1227,7 +1227,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>25</v>
@@ -1238,7 +1238,7 @@
       <c r="G13" s="22"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J13" s="14" t="s">
         <v>17</v>
@@ -1252,16 +1252,16 @@
     </row>
     <row r="14" spans="1:14" s="10" customFormat="1">
       <c r="A14" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E14" s="21"/>
       <c r="G14" s="21"/>
@@ -1279,16 +1279,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="21" t="s">
@@ -1342,7 +1342,7 @@
         <v>30</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
@@ -1361,7 +1361,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
@@ -1595,24 +1595,24 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" t="s">
         <v>90</v>
       </c>
-      <c r="B20" t="s">
-        <v>92</v>
-      </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1628,8 +1628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1655,10 +1655,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>73</v>
